--- a/biology/Botanique/Madame_Antoine_Meilland/Madame_Antoine_Meilland.xlsx
+++ b/biology/Botanique/Madame_Antoine_Meilland/Madame_Antoine_Meilland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ‘Madame Antoine Meilland’, hybride de thé connu dans les pays anglophones sous le nom de ‘Peace’ et dans les pays germanophones sous le nom de Gloria Dei, est l'un des rosiers cultivés les plus célèbres de tous les temps. Il a été dédié par son créateur à sa mère, née Claudia Dubreuil, fille de Francis Dubreuil.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1935, Francis Meilland, en voyage aux États-Unis, note sur son carnet d’hybridation un nouveau croisement : '3-35-40' : 'Johanna Hill' x semis ('CP Kilham' X 'Margareth McGredy').
 À l'automne 1936, '3-35-40' sera envoyé juste avant la guerre à tous les correspondants internationaux de Meilland. Cette nouvelle rose se voit décerner le 1er Prix, la médaille d’or et la mention « Plus belle rose de France » au concours international de roses nouvelles de Lyon.
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">‘Madame Antoine Meilland’ est un hybride de thé tétraploïde à très grandes fleurs (elles ont fréquemment un diamètre de 16 à 18 cm), très doubles, qui s'ouvrent en coupe. Leur couleur, d'un jaune or à clair ou crème légèrement ourlé de carmin varie suivant le sol, l'ensoleillement et d'un jour à l'autre avec l'âge de la fleur. Elles sont solitaires ou par deux ou trois sur de fortes tiges. La floraison peut être quasi continue d'avril à octobre.
 Le feuillage est vert vif.
@@ -583,7 +599,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>‘Mme A. Meilland / Peace’ est la seule gagnante de l’A.A.R.S. – All-America Rose Selections – en 1946.
 C’est aussi la première variété récompensée du titre Rose favorite du monde par le Hall of Fame en 1976 de la WFRS (Fédération mondiale des sociétés de roses).
@@ -618,9 +636,11 @@
           <t>Ascendance et filiation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rosier ‘Madame A. Meilland’ est le résultat du croisement suivant : [(‘George Dickson’ × ‘Souvenir de Claudius Pernet’) × (‘Joanna Hill’ × ‘Charles P. Kilham’)] × ‘Margaret Mc Gredy’[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rosier ‘Madame A. Meilland’ est le résultat du croisement suivant : [(‘George Dickson’ × ‘Souvenir de Claudius Pernet’) × (‘Joanna Hill’ × ‘Charles P. Kilham’)] × ‘Margaret Mc Gredy’.
 Parmi les près de 400 descendants obtenus depuis les années 1950, on peut noter le rosier ‘Chicago Peace’, un « sport » apparu en 1962 dans la région de Chicago (États-Unis) qui se distingue de ‘Madame A. Meilland’ par la couleur de ses fleurs, nettement ourlées de rose. Sur les 18 autres  mutations naturelles de ‘Peace’ qui sont déclarées et éditées, on peut aussi citer ‘Kronenbourg/Flaming Peace’.
 Parmi ses descendants remarquables, on note ‘Isabelle de France’ de Charles Mallerin, ‘Rose Gaujard’ de Gaujard, ‘Mischief’ de McGredy, ‘Memoriam’ de Von Abrams, ‘Belle Époque’ de Kriloff, ‘Berlin', ‘Karl Herbst’ et ‘Gold Crown’ de Kordes, ‘Diorama’ de De Ruiter, ‘O Sole Mio’ et 'Souvenir de Marcel Proust' de Delbard, ‘Garden Party’, ‘Perfume Delight’ et ‘Royal Highness’ de Swim &amp; Weeks, ‘Better Homes and Gardens’ de Warriner, ‘Allspice’ de Armstrong, 'Condesa de Mayalde' de Dot, ‘Love and Peace/ Pullman Orient Express’ de Ping Lim, ‘Sterling Silver’ de Fisher, ‘Prima Ballerina’ et ‘Super Star’ de Tantau, 'Dame de Cœur' de Lens, 'Grand Siècle' de Delbard, etc. 
 La Maison Meilland a elle-même utilisé ‘Peace’ pour obtenir ‘Confidence’ (1954), ‘Message’ et ‘Grace de Monaco’ (1956), ‘Christian Dior’ (1959), ‘Baronne Edmond de Rothschild’ (1968), 'Princesse de Monaco' (1981) et beaucoup d’autres variétés.
@@ -658,7 +678,9 @@
           <t>Célébrations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1996, pour le cinquantième anniversaire de l’ONU à Genève, Boutros Boutros-Ghali a présidé une cérémonie face à 240 adolescents de 197 pays différents, leur présentant le symbole de la Rose ‘Peace’. Il leur demanda de l’emporter avec eux dans leurs pays respectifs.
 2015, est l’année du 80e anniversaire de la conception de la rose 3-35-40, et le 70e anniversaire de son baptême à Pasadena en Californie.
